--- a/Inputs/Orange_Neuron/addons1.xlsx
+++ b/Inputs/Orange_Neuron/addons1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
     <sheet name="Maternity-Addon" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Annual Limit'!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Annual Limit'!$A$1:$F$23</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Medicines'!$A$1:$H$71</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$27</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$A$1:$E$5</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="163">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -74,91 +74,37 @@
     <t xml:space="preserve">Regional Plus- Elite</t>
   </si>
   <si>
-    <t xml:space="preserve">-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">inside options arr</t>
   </si>
   <si>
     <t xml:space="preserve">AED 250,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 300,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 500,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 1,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 1,500,000</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 2,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 2,500,000</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regional Plus- Diamond</t>
   </si>
   <si>
-    <t xml:space="preserve">-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regional Plus- Gold</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regional Plus- Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regional Plus- Bronze</t>
   </si>
   <si>
     <t xml:space="preserve">Suite </t>
@@ -588,6 +534,9 @@
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 750 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional Plus- Bronze</t>
   </si>
   <si>
     <t xml:space="preserve">280-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
@@ -799,10 +748,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -811,10 +756,10 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
@@ -844,7 +789,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -865,11 +810,11 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
+      <c r="F2" s="5" t="n">
+        <v>-10.99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -881,10 +826,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -893,11 +838,11 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
+      <c r="F3" s="6" t="n">
+        <v>-9.17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -909,10 +854,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -921,11 +866,11 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
+      <c r="F4" s="6" t="n">
+        <v>-7.54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -937,10 +882,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -949,11 +894,11 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
+      <c r="F5" s="6" t="n">
+        <v>-5.99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -965,10 +910,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -977,11 +922,11 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
+      <c r="F6" s="6" t="n">
+        <v>-4.63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -993,10 +938,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1005,11 +950,11 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1021,10 +966,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1033,11 +978,11 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
+      <c r="F8" s="6" t="n">
+        <v>1.82</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1049,10 +994,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1061,11 +1006,11 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
+      <c r="F9" s="6" t="n">
+        <v>3.63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1087,13 +1032,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-6.67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1105,23 +1050,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-4.76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1133,23 +1078,23 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>-3.05</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1161,23 +1106,23 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-1.43</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1189,23 +1134,23 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>22</v>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1217,23 +1162,23 @@
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>4.86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1245,23 +1190,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>6.76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1283,13 +1228,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-5.31</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1301,23 +1246,23 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="F18" s="0" t="n">
+        <v>-3.38</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1329,23 +1274,23 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>-1.64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1357,23 +1302,23 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1385,23 +1330,23 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1.45</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1423,13 +1368,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1441,23 +1386,23 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1469,23 +1414,23 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1.8</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1497,115 +1442,55 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>3.5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="7"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F23"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1613,7 +1498,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1628,7 +1512,7 @@
       <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1644,30 +1528,30 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,7 +1596,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1728,30 +1612,30 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,7 +1680,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1812,30 +1696,30 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,33 +1760,33 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,10 +1794,10 @@
         <v>5268</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>18</v>
@@ -1922,10 +1806,10 @@
         <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">(A2+((A2*34.23)/100))</f>
@@ -1937,10 +1821,10 @@
         <v>4885</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>18</v>
@@ -1949,10 +1833,10 @@
         <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">(A3+((A3*34.23)/100))</f>
@@ -1964,10 +1848,10 @@
         <v>3473</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>18</v>
@@ -1976,10 +1860,10 @@
         <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">(A4+((A4*34.23)/100))</f>
@@ -1991,10 +1875,10 @@
         <v>3175</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>18</v>
@@ -2003,10 +1887,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">(A5+((A5*34.23)/100))</f>
@@ -2065,7 +1949,7 @@
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.65"/>
@@ -2106,10 +1990,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2122,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2134,10 +2018,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2150,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2162,10 +2046,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2178,7 +2062,7 @@
         <v>-5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2190,23 +2074,23 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2218,23 +2102,23 @@
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2246,23 +2130,23 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>-5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2274,23 +2158,23 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2302,23 +2186,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>-5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2330,23 +2214,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>-7.5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2358,23 +2242,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5.3</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2386,23 +2270,23 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2414,23 +2298,23 @@
         <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>-2.6</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2459,7 +2343,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -2495,10 +2379,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2508,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2520,10 +2404,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2533,7 +2417,7 @@
         <v>-0.3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2545,10 +2429,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2558,7 +2442,7 @@
         <v>-0.61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2570,10 +2454,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2583,7 +2467,7 @@
         <v>-0.76</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2595,10 +2479,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2608,7 +2492,7 @@
         <v>-0.91</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2620,10 +2504,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2633,7 +2517,7 @@
         <v>-1.52</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2645,10 +2529,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2658,7 +2542,7 @@
         <v>-2.28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2670,10 +2554,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2683,7 +2567,7 @@
         <v>-3.04</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2776,7 +2660,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
@@ -2812,10 +2696,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2825,7 +2709,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2837,10 +2721,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2850,7 +2734,7 @@
         <v>2.5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2862,10 +2746,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2875,7 +2759,7 @@
         <v>2.25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2887,10 +2771,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2900,7 +2784,7 @@
         <v>1.75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2912,10 +2796,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2925,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2937,10 +2821,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2950,7 +2834,7 @@
         <v>-1.81</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2962,10 +2846,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2975,7 +2859,7 @@
         <v>-3.63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3108,7 +2992,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3129,17 +3013,17 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3148,17 +3032,17 @@
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3167,17 +3051,17 @@
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3186,17 +3070,17 @@
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3205,17 +3089,17 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3224,17 +3108,17 @@
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3243,17 +3127,17 @@
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3373,7 +3257,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.12"/>
@@ -3398,7 +3282,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -3412,10 +3296,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3425,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3440,10 +3324,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3453,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3468,10 +3352,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3481,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3496,10 +3380,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3509,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3524,10 +3408,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3537,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3552,10 +3436,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3565,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3580,10 +3464,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3593,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3608,10 +3492,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3621,10 +3505,10 @@
         <v>-2.5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3636,10 +3520,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3649,10 +3533,10 @@
         <v>-2.25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3664,10 +3548,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3677,10 +3561,10 @@
         <v>-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3692,10 +3576,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3705,10 +3589,10 @@
         <v>-1.75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3720,10 +3604,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3733,10 +3617,10 @@
         <v>-1.25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3748,10 +3632,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3761,10 +3645,10 @@
         <v>-1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3776,10 +3660,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3789,10 +3673,10 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3804,10 +3688,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3817,10 +3701,10 @@
         <v>-0.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3832,10 +3716,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3845,10 +3729,10 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3860,10 +3744,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3873,10 +3757,10 @@
         <v>-2.5</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3888,10 +3772,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3901,10 +3785,10 @@
         <v>-2.25</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3916,10 +3800,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3929,10 +3813,10 @@
         <v>-2</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3944,10 +3828,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3957,10 +3841,10 @@
         <v>-1.75</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -3972,10 +3856,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3985,10 +3869,10 @@
         <v>-1.25</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4000,10 +3884,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4013,10 +3897,10 @@
         <v>-1</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4028,10 +3912,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4041,10 +3925,10 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4056,10 +3940,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4069,10 +3953,10 @@
         <v>-0.5</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4084,10 +3968,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4097,10 +3981,10 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4112,10 +3996,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4125,10 +4009,10 @@
         <v>-2.5</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4140,10 +4024,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4153,10 +4037,10 @@
         <v>-2.25</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4168,10 +4052,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4181,10 +4065,10 @@
         <v>-2</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4196,10 +4080,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4209,10 +4093,10 @@
         <v>-1.75</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4224,10 +4108,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4237,10 +4121,10 @@
         <v>-1.25</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4252,10 +4136,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4265,10 +4149,10 @@
         <v>-1</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4280,10 +4164,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4293,10 +4177,10 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4308,10 +4192,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4321,10 +4205,10 @@
         <v>-0.5</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4336,10 +4220,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4349,10 +4233,10 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4364,10 +4248,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4377,10 +4261,10 @@
         <v>-2.5</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4392,10 +4276,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4405,10 +4289,10 @@
         <v>-2.25</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4420,10 +4304,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4433,10 +4317,10 @@
         <v>-2</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4448,10 +4332,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4461,10 +4345,10 @@
         <v>-1.75</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4476,10 +4360,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4489,10 +4373,10 @@
         <v>-1.25</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4504,10 +4388,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4517,10 +4401,10 @@
         <v>-1</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4532,10 +4416,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4545,10 +4429,10 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4560,10 +4444,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4573,10 +4457,10 @@
         <v>-0.5</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4588,10 +4472,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4601,10 +4485,10 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4616,10 +4500,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4629,10 +4513,10 @@
         <v>-2.5</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4644,10 +4528,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4657,10 +4541,10 @@
         <v>-2.25</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4672,10 +4556,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4685,10 +4569,10 @@
         <v>-2</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4700,10 +4584,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4713,10 +4597,10 @@
         <v>-1.75</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4728,10 +4612,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4741,10 +4625,10 @@
         <v>-1.25</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4756,10 +4640,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4769,10 +4653,10 @@
         <v>-1</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4784,10 +4668,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4797,10 +4681,10 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4812,10 +4696,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4825,10 +4709,10 @@
         <v>-0.5</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4840,10 +4724,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4853,10 +4737,10 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4868,10 +4752,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4881,10 +4765,10 @@
         <v>-2.5</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4896,10 +4780,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4909,10 +4793,10 @@
         <v>-2.25</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4924,10 +4808,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4937,10 +4821,10 @@
         <v>-2</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4952,10 +4836,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4965,10 +4849,10 @@
         <v>-1.75</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -4980,10 +4864,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4993,10 +4877,10 @@
         <v>-1.25</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5008,10 +4892,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5021,10 +4905,10 @@
         <v>-1</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5036,10 +4920,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5049,10 +4933,10 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5064,10 +4948,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5077,10 +4961,10 @@
         <v>-0.5</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5092,10 +4976,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5105,10 +4989,10 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5120,10 +5004,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5133,10 +5017,10 @@
         <v>-2.5</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5148,10 +5032,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5161,10 +5045,10 @@
         <v>-2.25</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5176,10 +5060,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5189,10 +5073,10 @@
         <v>-2</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5204,10 +5088,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5217,10 +5101,10 @@
         <v>-1.75</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H66" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5232,10 +5116,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5245,10 +5129,10 @@
         <v>-1.25</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5260,10 +5144,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5273,10 +5157,10 @@
         <v>-1</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5288,10 +5172,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5301,10 +5185,10 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H69" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5316,10 +5200,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5329,10 +5213,10 @@
         <v>-0.5</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5344,10 +5228,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5357,10 +5241,10 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H71" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5372,10 +5256,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D72" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5385,10 +5269,10 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H72" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5400,10 +5284,10 @@
         <v>8</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D73" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5413,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5428,10 +5312,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D74" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5441,10 +5325,10 @@
         <v>0</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5456,10 +5340,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D75" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5469,10 +5353,10 @@
         <v>0</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5484,10 +5368,10 @@
         <v>8</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D76" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5497,10 +5381,10 @@
         <v>0</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H76" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5512,10 +5396,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D77" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5525,10 +5409,10 @@
         <v>0</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5540,10 +5424,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D78" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5553,10 +5437,10 @@
         <v>0</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H78" s="4" t="n">
         <f aca="false">FALSE()</f>
@@ -5581,14 +5465,14 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="75.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.81"/>
@@ -5617,7 +5501,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -5625,27 +5509,27 @@
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D2" s="14" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5654,13 +5538,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5669,14 +5553,14 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>330</v>
+      <c r="F3" s="0" t="n">
+        <v>467</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5685,13 +5569,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5700,14 +5584,14 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>467</v>
+      <c r="F4" s="0" t="n">
+        <v>513</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5716,13 +5600,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5731,14 +5615,14 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>513</v>
+      <c r="F5" s="0" t="n">
+        <v>651</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5747,13 +5631,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5762,14 +5646,14 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>651</v>
+      <c r="F6" s="0" t="n">
+        <v>697</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5778,13 +5662,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5793,14 +5677,14 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>697</v>
+      <c r="F7" s="0" t="n">
+        <v>749</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5809,13 +5693,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5824,14 +5708,14 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>749</v>
+      <c r="F8" s="0" t="n">
+        <v>887</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5840,13 +5724,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5855,14 +5739,14 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>887</v>
+      <c r="F9" s="0" t="n">
+        <v>979</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5871,13 +5755,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5886,14 +5770,14 @@
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>979</v>
+      <c r="F10" s="0" t="n">
+        <v>1400</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5902,29 +5786,29 @@
     </row>
     <row r="11" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>1400</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>309</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5933,29 +5817,29 @@
     </row>
     <row r="12" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>218</v>
+        <v>19</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>340</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5964,29 +5848,29 @@
     </row>
     <row r="13" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>309</v>
+        <v>19</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>431</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5995,29 +5879,29 @@
     </row>
     <row r="14" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>340</v>
+        <v>19</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>462</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6026,29 +5910,29 @@
     </row>
     <row r="15" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>431</v>
+        <v>19</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>496</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6057,29 +5941,29 @@
     </row>
     <row r="16" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>462</v>
+        <v>19</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>588</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6088,29 +5972,29 @@
     </row>
     <row r="17" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>496</v>
+        <v>19</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>649</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6119,29 +6003,29 @@
     </row>
     <row r="18" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>588</v>
+        <v>20</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>166</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6150,29 +6034,29 @@
     </row>
     <row r="19" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>649</v>
+        <v>20</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>182</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6181,29 +6065,29 @@
     </row>
     <row r="20" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>117</v>
+        <v>20</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>231</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6212,29 +6096,29 @@
     </row>
     <row r="21" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>166</v>
+        <v>20</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>247</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6243,29 +6127,29 @@
     </row>
     <row r="22" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>182</v>
+        <v>20</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>266</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6274,29 +6158,29 @@
     </row>
     <row r="23" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>231</v>
+        <v>20</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>315</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6305,29 +6189,29 @@
     </row>
     <row r="24" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>247</v>
+        <v>21</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6336,29 +6220,29 @@
     </row>
     <row r="25" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>266</v>
+        <v>21</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>132</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6367,29 +6251,29 @@
     </row>
     <row r="26" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>315</v>
+        <v>21</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>167</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6398,29 +6282,29 @@
     </row>
     <row r="27" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>85</v>
+        <v>21</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>179</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6429,29 +6313,29 @@
     </row>
     <row r="28" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>120</v>
+        <v>21</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>193</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6492,7 +6376,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
@@ -6523,39 +6407,39 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6565,17 +6449,17 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>18</v>
@@ -6584,44 +6468,44 @@
         <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>18</v>
@@ -6630,44 +6514,44 @@
         <v>44</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>18</v>
@@ -6676,44 +6560,44 @@
         <v>44</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>18</v>
@@ -6722,13 +6606,13 @@
         <v>44</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6803,7 +6687,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -6834,7 +6718,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -6842,27 +6726,27 @@
     </row>
     <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D2" s="14" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6871,13 +6755,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6890,10 +6774,10 @@
         <v>127</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6902,13 +6786,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6921,10 +6805,10 @@
         <v>190</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6933,13 +6817,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6952,10 +6836,10 @@
         <v>255</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6964,13 +6848,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6983,10 +6867,10 @@
         <v>296</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6995,13 +6879,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7014,10 +6898,10 @@
         <v>382</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7026,13 +6910,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7045,10 +6929,10 @@
         <v>424</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7057,13 +6941,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7076,10 +6960,10 @@
         <v>465</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7088,29 +6972,29 @@
     </row>
     <row r="10" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>106</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7119,29 +7003,29 @@
     </row>
     <row r="11" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>158</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7150,29 +7034,29 @@
     </row>
     <row r="12" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>212</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7181,29 +7065,29 @@
     </row>
     <row r="13" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>247</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7212,29 +7096,29 @@
     </row>
     <row r="14" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>318</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7243,29 +7127,29 @@
     </row>
     <row r="15" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>353</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7274,29 +7158,29 @@
     </row>
     <row r="16" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>388</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7305,29 +7189,29 @@
     </row>
     <row r="17" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>57</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7336,29 +7220,29 @@
     </row>
     <row r="18" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>85</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7367,29 +7251,29 @@
     </row>
     <row r="19" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>114</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7398,29 +7282,29 @@
     </row>
     <row r="20" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>133</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7429,29 +7313,29 @@
     </row>
     <row r="21" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>172</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7460,29 +7344,29 @@
     </row>
     <row r="22" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>190</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7491,29 +7375,29 @@
     </row>
     <row r="23" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>209</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7522,29 +7406,29 @@
     </row>
     <row r="24" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>31</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7553,29 +7437,29 @@
     </row>
     <row r="25" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>46</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7584,29 +7468,29 @@
     </row>
     <row r="26" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>62</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7615,29 +7499,29 @@
     </row>
     <row r="27" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>72</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7646,29 +7530,29 @@
     </row>
     <row r="28" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>93</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7677,29 +7561,29 @@
     </row>
     <row r="29" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7708,29 +7592,29 @@
     </row>
     <row r="30" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>46</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7739,29 +7623,29 @@
     </row>
     <row r="31" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>62</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7770,29 +7654,29 @@
     </row>
     <row r="32" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>72</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="I32" s="4" t="n">
         <f aca="false">TRUE()</f>
